--- a/html/resources/aoiConditions/train2Block9Test.xlsx
+++ b/html/resources/aoiConditions/train2Block9Test.xlsx
@@ -34,16 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/01_gift.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
   </si>
 </sst>
 </file>
